--- a/Bodega.xlsx
+++ b/Bodega.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,66 @@
         <v>450000</v>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>Vendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/13/2021</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mini copper</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>26451235785</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vendido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14/10/2021</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Civic</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>350000</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Vendido</t>
         </is>
@@ -625,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +789,70 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/13/2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jimena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mini copper</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>26451235785</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14/10/2021</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Civic</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>350000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
